--- a/ArabRetailAutomation/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/ArabRetailAutomation/src/test/resources/TestData/AutomationTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="3225" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="170">
   <si>
     <t>TCID</t>
   </si>
@@ -544,6 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -995,16 +996,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.85546875"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1029,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>161</v>
@@ -1250,11 +1251,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="9.140625" style="8"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
-    <col min="21" max="21" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="8"/>
+    <col min="7" max="9" style="8" width="9.140625"/>
+    <col min="14" max="15" style="8" width="9.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="8" width="12.0"/>
+    <col min="28" max="28" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,10 +1459,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="8"/>
-    <col min="12" max="13" width="9.140625" style="8"/>
-    <col min="23" max="23" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="8"/>
+    <col min="8" max="9" style="8" width="9.140625"/>
+    <col min="12" max="13" style="8" width="9.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="26" max="26" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -1657,11 +1658,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="9.140625" style="8"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
-    <col min="20" max="20" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="8"/>
+    <col min="7" max="9" style="8" width="9.140625"/>
+    <col min="14" max="15" style="8" width="9.140625"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="8" width="12.0"/>
+    <col min="25" max="25" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -2042,11 +2043,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="9.140625" style="8"/>
-    <col min="14" max="14" width="9.140625" style="8"/>
-    <col min="25" max="25" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="8" customWidth="1"/>
+    <col min="7" max="9" style="8" width="9.140625"/>
+    <col min="14" max="14" style="8" width="9.140625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="8" width="12.0"/>
+    <col min="28" max="28" customWidth="true" style="8" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
@@ -2268,10 +2269,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="10" width="9.140625" style="8"/>
-    <col min="15" max="16" width="9.140625" style="8"/>
-    <col min="25" max="25" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" style="8" width="9.140625"/>
+    <col min="15" max="16" style="8" width="9.140625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="8" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
@@ -2475,7 +2476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="8"/>
+    <col min="8" max="9" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2584,7 +2585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="10" width="9.140625" style="8"/>
+    <col min="7" max="10" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2687,14 +2688,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="9.140625" style="8"/>
-    <col min="13" max="14" width="9.140625" style="8"/>
+    <col min="7" max="8" style="8" width="9.140625"/>
+    <col min="13" max="14" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -2953,10 +2954,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="12" max="13" width="9.140625" style="8"/>
-    <col min="24" max="24" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" style="8" width="9.140625"/>
+    <col min="12" max="13" style="8" width="9.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="8" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3149,10 +3150,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="8"/>
-    <col min="14" max="14" width="9.140625" style="8"/>
-    <col min="25" max="25" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="8" customWidth="1"/>
+    <col min="8" max="9" style="8" width="9.140625"/>
+    <col min="14" max="14" style="8" width="9.140625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="8" width="10.42578125"/>
+    <col min="27" max="27" customWidth="true" style="8" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3360,11 +3361,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0"/>
+    <col min="2" max="2" customWidth="true" width="19.28515625"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625"/>
+    <col min="5" max="5" customWidth="true" width="22.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3419,8 +3420,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="8"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
+    <col min="8" max="9" style="8" width="9.140625"/>
+    <col min="14" max="15" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -3697,8 +3698,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="10" width="9.140625" style="8"/>
-    <col min="13" max="14" width="9.140625" style="8"/>
+    <col min="9" max="10" style="8" width="9.140625"/>
+    <col min="13" max="14" style="8" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
